--- a/Prestamos 2.0/clientes del barrio.xlsx
+++ b/Prestamos 2.0/clientes del barrio.xlsx
@@ -345,13 +345,13 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -652,7 +652,7 @@
   <dimension ref="A1:AJ33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="AN11" sqref="AN11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="2"/>
@@ -1764,14 +1764,14 @@
       </c>
     </row>
     <row r="15" spans="1:36">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
     </row>
     <row r="16" spans="1:36" s="8" customFormat="1" outlineLevel="2">
       <c r="A16" s="8">
@@ -2773,22 +2773,22 @@
       <c r="F29" s="17"/>
     </row>
     <row r="30" spans="1:36" outlineLevel="2">
-      <c r="A30" s="13">
+      <c r="A30" s="12">
         <v>329</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="13">
-        <v>8</v>
-      </c>
-      <c r="D30" s="13">
+      <c r="C30" s="12">
+        <v>8</v>
+      </c>
+      <c r="D30" s="12">
         <v>115</v>
       </c>
-      <c r="E30" s="15" t="s">
+      <c r="E30" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F30" s="16">
+      <c r="F30" s="15">
         <v>2100</v>
       </c>
       <c r="I30" t="s">
@@ -2871,22 +2871,22 @@
       </c>
     </row>
     <row r="31" spans="1:36" outlineLevel="2">
-      <c r="A31" s="13">
+      <c r="A31" s="12">
         <v>366</v>
       </c>
-      <c r="B31" s="14">
+      <c r="B31" s="13">
         <v>43471</v>
       </c>
-      <c r="C31" s="13">
-        <v>8</v>
-      </c>
-      <c r="D31" s="13">
+      <c r="C31" s="12">
+        <v>8</v>
+      </c>
+      <c r="D31" s="12">
         <v>135</v>
       </c>
-      <c r="E31" s="15" t="s">
+      <c r="E31" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="F31" s="16">
+      <c r="F31" s="15">
         <v>899.08</v>
       </c>
       <c r="I31" t="s">
@@ -2969,22 +2969,22 @@
       </c>
     </row>
     <row r="32" spans="1:36" outlineLevel="2">
-      <c r="A32" s="13">
+      <c r="A32" s="12">
         <v>384</v>
       </c>
-      <c r="B32" s="14">
+      <c r="B32" s="13">
         <v>43714</v>
       </c>
-      <c r="C32" s="13">
-        <v>8</v>
-      </c>
-      <c r="D32" s="13">
+      <c r="C32" s="12">
+        <v>8</v>
+      </c>
+      <c r="D32" s="12">
         <v>144</v>
       </c>
-      <c r="E32" s="15" t="s">
+      <c r="E32" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="F32" s="16">
+      <c r="F32" s="15">
         <v>6596.04</v>
       </c>
       <c r="I32" t="s">
@@ -3066,101 +3066,101 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:36" s="13" customFormat="1" outlineLevel="2">
-      <c r="A33" s="13">
+    <row r="33" spans="1:36" s="12" customFormat="1" outlineLevel="2">
+      <c r="A33" s="12">
         <v>392</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="13">
-        <v>8</v>
-      </c>
-      <c r="D33" s="13">
+      <c r="C33" s="12">
+        <v>8</v>
+      </c>
+      <c r="D33" s="12">
         <v>161</v>
       </c>
-      <c r="E33" s="15" t="s">
+      <c r="E33" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="F33" s="16">
+      <c r="F33" s="15">
         <v>5958.37</v>
       </c>
-      <c r="I33" s="13" t="s">
+      <c r="I33" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="K33" s="13" t="s">
+      <c r="K33" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="L33" s="13" t="s">
+      <c r="L33" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="N33" s="13">
-        <v>8</v>
-      </c>
-      <c r="O33" s="13">
-        <v>700</v>
-      </c>
-      <c r="P33" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="13">
+      <c r="N33" s="12">
+        <v>8</v>
+      </c>
+      <c r="O33" s="12">
+        <v>700</v>
+      </c>
+      <c r="P33" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="12">
         <v>194946.6</v>
       </c>
-      <c r="R33" s="13">
+      <c r="R33" s="12">
         <v>136848.21</v>
       </c>
-      <c r="S33" s="13">
+      <c r="S33" s="12">
         <v>581595.85</v>
       </c>
-      <c r="T33" s="13">
+      <c r="T33" s="12">
         <v>407789.74</v>
       </c>
-      <c r="U33" s="13">
+      <c r="U33" s="12">
         <v>776542.45</v>
       </c>
-      <c r="V33" s="13">
+      <c r="V33" s="12">
         <v>231875</v>
       </c>
-      <c r="W33" s="13">
+      <c r="W33" s="12">
         <v>544637.94999999995</v>
       </c>
-      <c r="X33" s="13">
+      <c r="X33" s="12">
         <v>79</v>
       </c>
-      <c r="Y33" s="13">
+      <c r="Y33" s="12">
         <v>82</v>
       </c>
-      <c r="Z33" s="13">
-        <v>700</v>
-      </c>
-      <c r="AA33" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB33" s="13">
+      <c r="Z33" s="12">
+        <v>700</v>
+      </c>
+      <c r="AA33" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="12">
         <v>208491.87</v>
       </c>
-      <c r="AC33" s="13">
+      <c r="AC33" s="12">
         <v>141549.62</v>
       </c>
-      <c r="AD33" s="13">
+      <c r="AD33" s="12">
         <v>644515.89</v>
       </c>
-      <c r="AE33" s="13">
+      <c r="AE33" s="12">
         <v>451740.05</v>
       </c>
-      <c r="AF33" s="13">
+      <c r="AF33" s="12">
         <v>853007.76</v>
       </c>
-      <c r="AG33" s="13">
+      <c r="AG33" s="12">
         <v>256167</v>
       </c>
-      <c r="AH33" s="13">
+      <c r="AH33" s="12">
         <v>593289.67000000004</v>
       </c>
-      <c r="AI33" s="13">
+      <c r="AI33" s="12">
         <v>90</v>
       </c>
-      <c r="AJ33" s="13">
+      <c r="AJ33" s="12">
         <v>2</v>
       </c>
     </row>
